--- a/empresas_con_descripcion_corto.xlsx
+++ b/empresas_con_descripcion_corto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t xml:space="preserve">MANUNTENCIONES HIDROELEVACION S.L.</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">https://img.pixers.pics/pho_wat(s3:700/FO/14/31/98/62/700_FO14319862_15159f131b8bdf481b88b93c6cd7bd9f.jpg,700,466,cms:2018/10/5bd1b6b8d04b8_220x50-watermark.png,over,480,416,jpg)/vinilos-culo-mujer-evaluandola-rosa-g-string-bikini.jpg.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;li&gt;&lt;div class="collapse" id="horario5"&gt;&lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Sa 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;/div&gt;&lt;/li&gt;</t>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario5"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">MANUNTENCIONES HIDROELEVACION S.L. ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en A Coruña, nan. Somos referentes en el sector de CARRETILLAS ELEVADORAS: REPARACION, proporcionando soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional para actividades como [], adaptada a las necesidades de empresas y autónomos. Nuestro catálogo incluye marcas de calidad como [], garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler en A Coruña con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de nan.</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">//estaticos.paginasamarillas.es/paginasamarillas/9_11_2/ficha/images/empty.png</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;li&gt;&lt;div class="collapse" id="horario6"&gt;&lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;/div&gt;&lt;/li&gt;</t>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario6"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">SANDE Y DIAZ ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en A Coruña, nan. Somos referentes en el sector de COMPRESORES: FABRICACION, proporcionando soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional para actividades como [], adaptada a las necesidades de empresas y autónomos. Nuestro catálogo incluye marcas de calidad como [], garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler en A Coruña con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de nan.</t>
@@ -121,10 +121,46 @@
     <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=42.7642018,-8.2675955&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;li&gt;&lt;div class="collapse" id="horario7"&gt;&lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;/div&gt;&lt;/li&gt;</t>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario7"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Domingo&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Su 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Gruas Y Talleres Fuerte ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Vila de Cruces, Pontevedra. Somos referentes en el sector de GRUAS PARA CONSTRUCCION E INDUSTRIA: VENTA Y ALQUILER, proporcionando soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional para actividades como [], adaptada a las necesidades de empresas y autónomos. Nuestro catálogo incluye marcas de calidad como [], garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler en Vila de Cruces con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Pontevedra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario9"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;s&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande y Díaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario10"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruas taller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario11"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario12"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Sa 16:45-22:45"&gt;16:45-22:45&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diazsand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario13"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Sa 16:45-22:45"&gt;16:45-22:45&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Domingo&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt; &lt;/div&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario14"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Mo 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Tu 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="We 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Th 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt; y &lt;time itemprop="openingHours" datetime="Fr 16:00-20:00"&gt;16:00-20:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Sábado&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Sa 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Sa 16:45-22:45"&gt;16:45-22:45&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Domingo&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Su 09:00-13:00"&gt; 9:35-14:45&lt;/time&gt;y &lt;time itemprop="openingHours" datetime="Su 16:45-22:45"&gt;16:45-22:45&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
   </si>
 </sst>
 </file>
@@ -206,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +253,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -342,10 +382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +408,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="296.22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +445,14 @@
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -452,14 +492,14 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -499,16 +539,294 @@
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="https://img.pixers.pics/pho_wat(s3:700/FO/14/31/98/62/700_FO14319862_15159f131b8bdf481b88b93c6cd7bd9f.jpg,700,466,cms:2018/10/5bd1b6b8d04b8_220x50-watermark.png,over,480,416,jpg)/vinilos-culo-mujer-evaluandola-rosa-g-string-bikini.jpg.jpg"/>
+    <hyperlink ref="M4" r:id="rId2" display="https://img.pixers.pics/pho_wat(s3:700/FO/14/31/98/62/700_FO14319862_15159f131b8bdf481b88b93c6cd7bd9f.jpg,700,466,cms:2018/10/5bd1b6b8d04b8_220x50-watermark.png,over,480,416,jpg)/vinilos-culo-mujer-evaluandola-rosa-g-string-bikini.jpg.jpg"/>
+    <hyperlink ref="M7" r:id="rId3" display="https://img.pixers.pics/pho_wat(s3:700/FO/14/31/98/62/700_FO14319862_15159f131b8bdf481b88b93c6cd7bd9f.jpg,700,466,cms:2018/10/5bd1b6b8d04b8_220x50-watermark.png,over,480,416,jpg)/vinilos-culo-mujer-evaluandola-rosa-g-string-bikini.jpg.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/empresas_con_descripcion_corto.xlsx
+++ b/empresas_con_descripcion_corto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t xml:space="preserve">MANUNTENCIONES HIDROELEVACION S.L.</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">A Coruña</t>
   </si>
   <si>
-    <t xml:space="preserve">609170713.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARRETILLAS ELEVADORAS: REPARACION</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t xml:space="preserve">15006.0</t>
   </si>
   <si>
-    <t xml:space="preserve">981174209.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.sandeydiaz.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pontevedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">986583547.0</t>
   </si>
   <si>
     <t xml:space="preserve">http://gruasfuerte.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
@@ -167,8 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -242,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,11 +243,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,7 +381,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,131 +420,131 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="n">
+        <v>609170713</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>981174209</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2" t="n">
+        <v>986583547</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -562,131 +558,131 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="n">
+        <v>609170713</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>36</v>
+      <c r="R4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>981174209</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="2" t="n">
+        <v>986583547</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -700,126 +696,126 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="n">
+        <v>609170713</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>42</v>
+      <c r="R7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>981174209</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="R8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="2" t="n">
+        <v>986583547</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/empresas_con_descripcion_corto.xlsx
+++ b/empresas_con_descripcion_corto.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,171 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
-  <si>
-    <t xml:space="preserve">Visorex Instalación y Mantenimiento - Energias Renovables-Refrigeración-Climatización y Fontaneria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle San Miguel, 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villanueva de la Serena</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+  <si>
+    <t xml:space="preserve">Servitasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carretera EX-209, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montijo</t>
   </si>
   <si>
     <t xml:space="preserve">Badajoz</t>
   </si>
   <si>
-    <t xml:space="preserve">+34639336326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.visorex.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIRE ACONDICIONADO EQUIPOS: DISTRIBUCION</t>
+    <t xml:space="preserve">http://www.servitasasl.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAQUINARIA: ALQUILER</t>
   </si>
   <si>
     <t xml:space="preserve">[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ENERGIAS RENOVABLES.VILLANUEVA DE LA SERENA.- CLIMATIZACIÓN.VILLANUEVA DE LA SERENA.FRIO INDUSTRIAL Y FRIO COMERCIAL EN.VILLANUEVA DE LA SERENA.- FONTANERIA.VILLANUEVA DE LA SERENA.- INSTALACIÓN PLACAS SOLARES.VILLANUEVA DE LA SERENA.- LLAMENOS: 639 336 326 !!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=38.978271894,-5.792756267&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+    <t xml:space="preserve">Maquinaria.Servitasa.es un negocio ubicado en Carretera EX-209, S/N,.Montijo...El horario de apertura para hoy jueves es 08:00-14:00 y 16:30-19:00..Puedes contactar con este negocio en el número de teléfono 924450801, en la web, a través del formulario de contacto y en las redes sociales..Valora los servicios de.Servitasa., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=38.90183,-6.627615&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://facebook.com/ServitasaMaquinarias</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;li&gt; &lt;div class="collapse" id="horario5"&gt; &lt;p&gt;&lt;b&gt;Lunes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Mo 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Martes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Tu 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Miércoles&lt;/b&gt;&lt;time itemprop="openingHours" datetime="We 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Jueves&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Th 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Viernes&lt;/b&gt;&lt;time itemprop="openingHours" datetime="Fr 09:00-13:00"&gt;09:00-13:00&lt;/time&gt;&lt;/p&gt; &lt;/div&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">En Visorex Instalación y Mantenimiento - Energias Renovables-Refrigeración-Climatización y Fontaneria combinamos nuestra experiencia en aire acondicionado equipos: distribucion con un servicio integral de alquiler de maquinaria en Villanueva De La Serena, Badajoz. Contamos con personal cualificado y maquinaria versátil para obras, instalaciones o trabajos de mantenimiento. Nos esforzamos por ofrecer un servicio eficiente, seguro y ajustado a las necesidades de cada cliente, tanto profesional como particular. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Soluciones eléctricas profesionales • Alcalá de Guadaíra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duo Clima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle Harimaguada, 52 (1º D), 35250 INGENIO, LAS PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las Palmas de Gran Canaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+34620870872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIRE ACONDICIONADO: EQUIPOS E INSTALACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['GENERAL', 'DAIKIN', 'FUJITSU', 'FUJITSU-SIEMENS', 'GENERAL FUJITSU']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación y mantenimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=27.92146739,-15.44808261&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duo Clima ofrece soluciones profesionales en aire acondicionado: equipos e instalaciones y alquiler de maquinaria en Ingenio, Las Palmas. Nuestro compromiso con la calidad se refleja en la selección de equipos robustos y en el soporte técnico que brindamos. Aportamos flexibilidad, confianza y experiencia a cada proyecto, garantizando resultados óptimos en tiempo y coste. Trabajamos con primeras marcas como GENERAL, DAIKIN, FUJITSU, FUJITSU-SIEMENS, GENERAL FUJITSU, garantizando fiabilidad y rendimiento en cada equipo. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Villanueva de la Serena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haz Clima - Instalación de Aire Acondicionado en Colmenar Viejo - Climatización en Colmenar Viejo-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERMITA DE SANTA ANA, 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colmenar Viejo</t>
+    <t xml:space="preserve">Servitasa ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Montijo, Badajoz. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Badajoz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALQUILER_MAQUINARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alquiler Plataformas Elevadoras Maqlift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Vargas, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrecife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Palmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://maqlift.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUAS PARA CONSTRUCCION E INDUSTRIA: VENTA Y ALQUILER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruas para construccion e industria.Alquiler Plataformas Elevadoras Maqlift.es un negocio ubicado en Avenida Vargas, 1,.Arrecife...Puedes contactar con este negocio en el número de teléfono 916424914, en la web y a través del formulario de contacto..Valora los servicios de.Alquiler Plataformas Elevadoras Maqlift., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=28.9592763,-13.5467189&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alquiler Plataformas Elevadoras Maqlift ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Arrecife, Las Palmas. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Las Palmas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loxamhune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Constitución, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coslada</t>
   </si>
   <si>
     <t xml:space="preserve">Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">+34609034928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aire acondicionado: equipos (fabricación)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación, Reparación y mantenimiento de aire Acondicionado..Climatización en General..Presupuesto sin Compromiso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://multimedia.paginasamarillas.es/adsContentSrv/230416810-1-4J9eGHG6pi/963ba40c-3048-4609-b632-b71596dd5608/climatizacion_colmenar_viejo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100075770222762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.instagram.com/hazclima/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haz Clima - Instalación de Aire Acondicionado en Colmenar Viejo - Climatización en Colmenar Viejo- es una empresa especializada en aire acondicionado: equipos (fabricación) con una sólida experiencia en el alquiler de maquinaria en Colmenar Viejo, Madrid. Ofrecemos equipos modernos, seguros y eficientes para obras, mantenimiento o proyectos industriales, adaptándonos a las necesidades de cada cliente. Nuestro compromiso es proporcionar soluciones rápidas y de calidad, con asesoramiento técnico y un servicio cercano. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Colmenar Viejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metaclima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbanización Parque Miraflores,Bloque, 61 Quinto A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+34637865023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.metaclima.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metaclima.somos una empresa de climatización en.fuenlabrada.especializada en la instalación de sistemas de climatización como aerotermia, aire acondicionado, suelo radiante y calderas. Además, realizamos trabajos urgentes de fontanería.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estaticos.paginasamarillas.es/paginasamarillas/9_11_2/ficha/images/img-generica.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somos Metaclima, tu socio de confianza en aire acondicionado: equipos e instalaciones y alquiler de maquinaria en Fuenlabrada, Madrid. Ponemos a disposición de nuestros clientes una amplia gama de equipos industriales, herramientas especializadas y soluciones adaptadas a cada proyecto. Nos destacamos por la calidad, la puntualidad en la entrega y la atención al detalle que ofrecemos en cada servicio. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Écija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novaire 2020 S.l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle Arenisca, 7</t>
+    <t xml:space="preserve">http://www.loxamhune.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria.Loxamhune.es un negocio ubicado en Avenida Constitución, 3,.Coslada...Puedes contactar con este negocio en el número de teléfono 913359550, en la web y a través del formulario de contacto..Valora los servicios de.Loxamhune., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=40.4198,-3.57674&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loxamhune ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Coslada, Madrid. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Madrid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ole Acqua Future sl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida San Pablo, 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria.Ole Acqua Future Sl.es un negocio ubicado en Avenida San Pablo, 26,.Coslada...Puedes contactar con este negocio en el número de teléfono 695932468 y a través del formulario de contacto..Valora los servicios de.Ole Acqua Future Sl., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=40.436438556,-3.532713567&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ole Acqua Future sl ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Coslada, Madrid. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Madrid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenke Rent, S.l. Delegación Andalucía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida José Ortega y Gasset, 212</t>
   </si>
   <si>
     <t xml:space="preserve">Málaga</t>
   </si>
   <si>
-    <t xml:space="preserve">+34691664054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://novairemalaga.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño, Instalación y mantenimiento de sistemas de climatización. Conducto, enfriadora y heosteleria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=36.716788,-4.4508021&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somos Novaire 2020 S.l, tu socio de confianza en aire acondicionado: equipos e instalaciones y alquiler de maquinaria en Málaga, Málaga. Ponemos a disposición de nuestros clientes una amplia gama de equipos industriales, herramientas especializadas y soluciones adaptadas a cada proyecto. Nos destacamos por la calidad, la puntualidad en la entrega y la atención al detalle que ofrecemos en cada servicio. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Instaladores certificados GENERAL, DAIKIN • Ingenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuaservi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poligono Ind. Recisur - Calle Pie Solo Nueve, 3 Nave 3</t>
+    <t xml:space="preserve">http://grenke.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAQUINAS DE OFICINA: ALQUILER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinas de oficina.Grenke Rent, S.L. Delegación Andalucía.es un negocio ubicado en Avenida José Ortega y Gasset, 212,.Málaga...Puedes contactar con este negocio en el número de teléfono 952038743, en la web y a través del formulario de contacto..Valora los servicios de.Grenke Rent, S.L. Delegación Andalucía., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=36.70673,-4.46996&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenke Rent, S.l. Delegación Andalucía ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Málaga, Málaga. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Málaga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolquick Alcalá de Guadaira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Príncipe de Asturias, 8 B</t>
   </si>
   <si>
     <t xml:space="preserve">Alcalá de Guadaíra</t>
@@ -193,109 +163,85 @@
     <t xml:space="preserve">Sevilla</t>
   </si>
   <si>
-    <t xml:space="preserve">+34608516208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.acuaservi.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUMULADORES ELECTRICOS: FABRICANTES Y MAYORISTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['HUNTER', 'TORO', 'CAPRARI', 'EBARA', 'VENETO', 'GRUNDFOS', 'ESPA']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupos de presión y piscinas..Mantenimiento de comunidades..Bombas sumergibles para pozos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.35377039999999,-5.8423775&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En Acuaservi, líderes en acumuladores electricos: fabricantes y mayoristas, apostamos por la innovación y la fiabilidad en el sector del alquiler de maquinaria en Alcalá De Guadaíra, Sevilla. Disponemos de un amplio catálogo de equipos de última generación para profesionales y particulares. Nuestro objetivo es optimizar el trabajo de nuestros clientes con maquinaria de alto rendimiento y un servicio de atención personalizada. Trabajamos con primeras marcas como HUNTER, TORO, CAPRARI, EBARA, VENETO, garantizando fiabilidad y rendimiento en cada equipo. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Fuenlabrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poligono industrial Mirador, 30</t>
+    <t xml:space="preserve">http://toolquick.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria.Toolquick Alcalá De Guadaira.es un negocio ubicado en Avenida Príncipe de Asturias, 8 B,.Alcalá de Guadaíra...Puedes contactar con este negocio en el número de teléfono 955442900, en la web y a través del formulario de contacto..Valora los servicios de.Toolquick Alcalá De Guadaira., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.35219,-5.85931&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolquick Alcalá de Guadaira ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Alcalá de Guadaíra, Sevilla. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Sevilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo García Muñoz S.l. Écija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Villanueva del Rey, 23</t>
   </si>
   <si>
     <t xml:space="preserve">Écija</t>
   </si>
   <si>
-    <t xml:space="preserve">+34617690449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climatización, calefacción, ventilación, energias reovables, mantenimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.543912020315176,-5.061948486459073&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somos Inclimar, tu socio de confianza en aire acondicionado: equipos e instalaciones y alquiler de maquinaria en Écija, Sevilla. Ponemos a disposición de nuestros clientes una amplia gama de equipos industriales, herramientas especializadas y soluciones adaptadas a cada proyecto. Nos destacamos por la calidad, la puntualidad en la entrega y la atención al detalle que ofrecemos en cada servicio. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Sevilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piclimasur Icm S.l.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle Médicos sin Fronteras, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+34649390393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.piclimasur.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aire acondicionado Piclimasur Icm S.L. es un negocio ubicado en Calle Médicos sin Fronteras, 2,.Sevilla., en el barrio de Bami del distrito de Sur..El horario de apertura para hoy viernes es 09:00-14:00 y 16:00-19:00..Puedes contactar con este negocio en el número de teléfono 649390393, en la web, a través del formulario de contacto y en las redes sociales..Valora los servicios de Piclimasur Icm S.L., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.359757584,-5.977198965&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://facebook.com/Piclimasur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En Piclimasur Icm S.l. combinamos nuestra experiencia en aire acondicionado: equipos e instalaciones con un servicio integral de alquiler de maquinaria en Sevilla, Sevilla. Contamos con personal cualificado y maquinaria versátil para obras, instalaciones o trabajos de mantenimiento. Nos esforzamos por ofrecer un servicio eficiente, seguro y ajustado a las necesidades de cada cliente, tanto profesional como particular. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • Málaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tefcan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle Oxígeno, 10 1;PLANTA ED. DERECHO</t>
+    <t xml:space="preserve">http://ggm.es?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAQUINARIA PARA LA CONSTRUCCION: ALQUILER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria para la construccion.Guillermo García Muñoz S.L. Écija.es un negocio ubicado en Calle Villanueva del Rey, 23,.Écija...Puedes contactar con este negocio en el número de teléfono 954106345, en la web y a través del formulario de contacto..Valora los servicios de.Guillermo García Muñoz S.L. Écija., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.5254659,-5.1226071&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo García Muñoz S.l. Écija ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Écija, Sevilla. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Sevilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andalucia Gruas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gramil (Pol. Ind. Store), 10 12 NAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gruasandalucia.net?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruas para construccion e industria.Andalucia Gruas.es un negocio ubicado en Gramil (Pol. Ind. Store), 10 12 NAVE,.Sevilla., en el barrio de Aeropuerto Viejo del distrito de Macarena Norte..Puedes contactar con este negocio en el número de teléfono 954351813, en la web y a través del formulario de contacto..Valora los servicios de.Andalucia Gruas., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=37.415694995,-5.955827951&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andalucia Gruas ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en Sevilla, Sevilla. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Sevilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grúas y Talleres Atlántico sl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Volcán Elena, 22 Portal A , Puerta F8</t>
   </si>
   <si>
     <t xml:space="preserve">San Cristóbal de la Laguna</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Cruz de Tenerife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+34922611960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tefcan.com?utm_campaign=paginasamarillas&amp;utm_source=paginasamarillas&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aire acondicionado.TEFCAN.es un negocio ubicado en Calle Oxígeno, 10 1;PLANTA ED. DERECHO,.San Cristóbal de la Laguna...El horario de apertura para hoy viernes es 08:00-16:00..Puedes contactar con este negocio en el número de teléfono 922611960, en la web y a través del formulario de contacto..Valora los servicios de.TEFCAN., dejando tu opinión y subiendo alguna fotografía relacionada con este negocio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=28.456425615,-16.310992793&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tefcan ofrece soluciones profesionales en aire acondicionado: equipos e instalaciones y alquiler de maquinaria en San Cristóbal De La Laguna, Sta Cruz De Tenerife. Nuestro compromiso con la calidad se refleja en la selección de equipos robustos y en el soporte técnico que brindamos. Aportamos flexibilidad, confianza y experiencia a cada proyecto, garantizando resultados óptimos en tiempo y coste. Ofrecemos además asesoramiento personalizado para elegir la maquinaria más adecuada, garantizando eficiencia y seguridad en cada uso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓ Especialistas en climatización • San Cristóbal de la Laguna</t>
+    <t xml:space="preserve">Sta Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUAS TORRE Y AUTOMONTANTES: VENTA Y ALQUILER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['LIEBHERR', 'SAEZ', 'JASO', 'ABUS']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra, Venta, Alquiler, Instalación, Mantenimiento, y Reparación de Grúas, Torres y Equipos de Elevación..Importación y exportación de todo tipo de maquinaria industrial y de la construcción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;iframe src='https://www.google.com/maps?q=28.46058,-16.30104&amp;z=15&amp;output=embed' width='600' height='450' style='border:0;' allowfullscreen loading='lazy' referrerpolicy='no-referrer-when-downgrade'&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grúas y Talleres Atlántico sl ofrece servicios especializados en alquiler de maquinaria y equipos profesionales en San Cristóbal de la Laguna, Sta Cruz de Tenerife. Proporcionamos soluciones de renta de maquinaria industrial para trabajos de construcción, mantenimiento y proyectos técnicos. Contamos con maquinaria profesional de alta calidad, garantizando rendimiento y fiabilidad. Si buscas servicios de alquiler con asesoramiento experto y disponibilidad inmediata, somos tu mejor opción en la provincia de Sta Cruz de Tenerife.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,16 +333,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -594,16 +536,16 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="134.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="134.98"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>6700</v>
+        <v>6480</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -619,38 +561,41 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="n">
+        <v>34924450801</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>35250</v>
+        <v>35500</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -666,3365 +611,3359 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="n">
+        <v>34916424914</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>28821</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>34913359550</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>28823</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>28770</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="F4" s="1" t="n">
+        <v>34695932468</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="n">
+        <v>29006</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>28942</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>34952038743</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>29007</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>41500</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>34955442900</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>41409</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>34954106345</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="R7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="T7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="C8" s="1" t="n">
+        <v>41008</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>34954351813</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="S8" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>41400</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" s="1" t="n">
+        <v>38108</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="F9" s="1" t="n">
+        <v>34639900797</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="K9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>41020</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>38296</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>91</v>
+      <c r="T9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="2"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="2"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="2"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="2"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="2"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="2"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="2"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="2"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="2"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="2"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="2"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="2"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="2"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="2"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="2"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="2"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="2"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="2"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="2"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="2"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="2"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="2"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="2"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="2"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="2"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="2"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="2"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="2"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="2"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="2"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="2"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="2"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="2"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="2"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="2"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="2"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="2"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="2"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="2"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="2"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="2"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="2"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="2"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="2"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="2"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="2"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="2"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="2"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="2"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="2"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="2"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="2"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="2"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="2"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="2"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="2"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="2"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="2"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="2"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="2"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="2"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="2"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="2"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="2"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="2"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="2"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="2"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="2"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="2"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="2"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="2"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="2"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="2"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="2"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="2"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="2"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="2"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="2"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="2"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="2"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="2"/>
+      <c r="F103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="2"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="2"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="2"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="2"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="2"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="2"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="2"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="2"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="2"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="2"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="2"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="2"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="2"/>
+      <c r="F116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="2"/>
+      <c r="F117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="2"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="2"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="2"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="2"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="2"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="2"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="2"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="2"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="2"/>
+      <c r="F126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="2"/>
+      <c r="F127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="2"/>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="2"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="2"/>
+      <c r="F130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="2"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="2"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="2"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="2"/>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="2"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="2"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="2"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="2"/>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="2"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="2"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="2"/>
+      <c r="F141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="2"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="2"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="2"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="2"/>
+      <c r="F145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="2"/>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="2"/>
+      <c r="F147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="2"/>
+      <c r="F148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="2"/>
+      <c r="F149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="2"/>
+      <c r="F150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="2"/>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="2"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="2"/>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="2"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="2"/>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="2"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="2"/>
+      <c r="F157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="2"/>
+      <c r="F158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="2"/>
+      <c r="F159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="2"/>
+      <c r="F160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="2"/>
+      <c r="F161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="2"/>
+      <c r="F162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="2"/>
+      <c r="F163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="2"/>
+      <c r="F164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="2"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="2"/>
+      <c r="F166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="2"/>
+      <c r="F167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="2"/>
+      <c r="F168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="2"/>
+      <c r="F169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="2"/>
+      <c r="F170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="2"/>
+      <c r="F171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="2"/>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="2"/>
+      <c r="F173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="2"/>
+      <c r="F174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="2"/>
+      <c r="F175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="2"/>
+      <c r="F176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="2"/>
+      <c r="F177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="2"/>
+      <c r="F178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="2"/>
+      <c r="F179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="2"/>
+      <c r="F180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="2"/>
+      <c r="F181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="2"/>
+      <c r="F182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="2"/>
+      <c r="F183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="2"/>
+      <c r="F184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="2"/>
+      <c r="F185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="2"/>
+      <c r="F186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="2"/>
+      <c r="F187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="2"/>
+      <c r="F188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="2"/>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="2"/>
+      <c r="F190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="2"/>
+      <c r="F191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="2"/>
+      <c r="F192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="2"/>
+      <c r="F193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="2"/>
+      <c r="F194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="2"/>
+      <c r="F195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="2"/>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="2"/>
+      <c r="F197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="2"/>
+      <c r="F198" s="3"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="2"/>
+      <c r="F199" s="3"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="2"/>
+      <c r="F200" s="3"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F201" s="2"/>
+      <c r="F201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F202" s="2"/>
+      <c r="F202" s="3"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F203" s="2"/>
+      <c r="F203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F204" s="2"/>
+      <c r="F204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F205" s="2"/>
+      <c r="F205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F206" s="2"/>
+      <c r="F206" s="3"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F207" s="2"/>
+      <c r="F207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F208" s="2"/>
+      <c r="F208" s="3"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="2"/>
+      <c r="F209" s="3"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F210" s="2"/>
+      <c r="F210" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F211" s="2"/>
+      <c r="F211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F212" s="2"/>
+      <c r="F212" s="3"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F213" s="2"/>
+      <c r="F213" s="3"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F214" s="2"/>
+      <c r="F214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F215" s="2"/>
+      <c r="F215" s="3"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F216" s="2"/>
+      <c r="F216" s="3"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F217" s="2"/>
+      <c r="F217" s="3"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F218" s="2"/>
+      <c r="F218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F219" s="2"/>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F220" s="2"/>
+      <c r="F220" s="3"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F221" s="2"/>
+      <c r="F221" s="3"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F222" s="2"/>
+      <c r="F222" s="3"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F223" s="2"/>
+      <c r="F223" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F224" s="2"/>
+      <c r="F224" s="3"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F225" s="2"/>
+      <c r="F225" s="3"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F226" s="2"/>
+      <c r="F226" s="3"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F227" s="2"/>
+      <c r="F227" s="3"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F228" s="2"/>
+      <c r="F228" s="3"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F229" s="2"/>
+      <c r="F229" s="3"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F230" s="2"/>
+      <c r="F230" s="3"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F231" s="2"/>
+      <c r="F231" s="3"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F232" s="2"/>
+      <c r="F232" s="3"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F233" s="2"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F234" s="2"/>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F235" s="2"/>
+      <c r="F235" s="3"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F236" s="2"/>
+      <c r="F236" s="3"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="2"/>
+      <c r="F237" s="3"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="2"/>
+      <c r="F238" s="3"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="2"/>
+      <c r="F239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="2"/>
+      <c r="F240" s="3"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="2"/>
+      <c r="F241" s="3"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="2"/>
+      <c r="F242" s="3"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="2"/>
+      <c r="F243" s="3"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="2"/>
+      <c r="F244" s="3"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="2"/>
+      <c r="F245" s="3"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="2"/>
+      <c r="F246" s="3"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="2"/>
+      <c r="F247" s="3"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="2"/>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F249" s="2"/>
+      <c r="F249" s="3"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="2"/>
+      <c r="F250" s="3"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="2"/>
+      <c r="F251" s="3"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="2"/>
+      <c r="F252" s="3"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="2"/>
+      <c r="F253" s="3"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="2"/>
+      <c r="F254" s="3"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="2"/>
+      <c r="F255" s="3"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F256" s="2"/>
+      <c r="F256" s="3"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F257" s="2"/>
+      <c r="F257" s="3"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F258" s="2"/>
+      <c r="F258" s="3"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F259" s="2"/>
+      <c r="F259" s="3"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F260" s="2"/>
+      <c r="F260" s="3"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F261" s="2"/>
+      <c r="F261" s="3"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F262" s="2"/>
+      <c r="F262" s="3"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F263" s="2"/>
+      <c r="F263" s="3"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F264" s="2"/>
+      <c r="F264" s="3"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F265" s="2"/>
+      <c r="F265" s="3"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F266" s="2"/>
+      <c r="F266" s="3"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F267" s="2"/>
+      <c r="F267" s="3"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F268" s="2"/>
+      <c r="F268" s="3"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F269" s="2"/>
+      <c r="F269" s="3"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F270" s="2"/>
+      <c r="F270" s="3"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F271" s="2"/>
+      <c r="F271" s="3"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F272" s="2"/>
+      <c r="F272" s="3"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F273" s="2"/>
+      <c r="F273" s="3"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F274" s="2"/>
+      <c r="F274" s="3"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F275" s="2"/>
+      <c r="F275" s="3"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F276" s="2"/>
+      <c r="F276" s="3"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F277" s="2"/>
+      <c r="F277" s="3"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F278" s="2"/>
+      <c r="F278" s="3"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F279" s="2"/>
+      <c r="F279" s="3"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F280" s="2"/>
+      <c r="F280" s="3"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F281" s="2"/>
+      <c r="F281" s="3"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F282" s="2"/>
+      <c r="F282" s="3"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F283" s="2"/>
+      <c r="F283" s="3"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F284" s="2"/>
+      <c r="F284" s="3"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F285" s="2"/>
+      <c r="F285" s="3"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F286" s="2"/>
+      <c r="F286" s="3"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F287" s="2"/>
+      <c r="F287" s="3"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F288" s="2"/>
+      <c r="F288" s="3"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F289" s="2"/>
+      <c r="F289" s="3"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F290" s="2"/>
+      <c r="F290" s="3"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F291" s="2"/>
+      <c r="F291" s="3"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F292" s="2"/>
+      <c r="F292" s="3"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F293" s="2"/>
+      <c r="F293" s="3"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F294" s="2"/>
+      <c r="F294" s="3"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F295" s="2"/>
+      <c r="F295" s="3"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F296" s="2"/>
+      <c r="F296" s="3"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F297" s="2"/>
+      <c r="F297" s="3"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F298" s="2"/>
+      <c r="F298" s="3"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F299" s="2"/>
+      <c r="F299" s="3"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F300" s="2"/>
+      <c r="F300" s="3"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F301" s="2"/>
+      <c r="F301" s="3"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F302" s="2"/>
+      <c r="F302" s="3"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F303" s="2"/>
+      <c r="F303" s="3"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F304" s="2"/>
+      <c r="F304" s="3"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F305" s="2"/>
+      <c r="F305" s="3"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F306" s="2"/>
+      <c r="F306" s="3"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F307" s="2"/>
+      <c r="F307" s="3"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F308" s="2"/>
+      <c r="F308" s="3"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F309" s="2"/>
+      <c r="F309" s="3"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F310" s="2"/>
+      <c r="F310" s="3"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F311" s="2"/>
+      <c r="F311" s="3"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F312" s="2"/>
+      <c r="F312" s="3"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F313" s="2"/>
+      <c r="F313" s="3"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F314" s="2"/>
+      <c r="F314" s="3"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F315" s="2"/>
+      <c r="F315" s="3"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F316" s="2"/>
+      <c r="F316" s="3"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F317" s="2"/>
+      <c r="F317" s="3"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F318" s="2"/>
+      <c r="F318" s="3"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F319" s="2"/>
+      <c r="F319" s="3"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F320" s="2"/>
+      <c r="F320" s="3"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F321" s="2"/>
+      <c r="F321" s="3"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F322" s="2"/>
+      <c r="F322" s="3"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F323" s="2"/>
+      <c r="F323" s="3"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F324" s="2"/>
+      <c r="F324" s="3"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F325" s="2"/>
+      <c r="F325" s="3"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F326" s="2"/>
+      <c r="F326" s="3"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F327" s="2"/>
+      <c r="F327" s="3"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F328" s="2"/>
+      <c r="F328" s="3"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F329" s="2"/>
+      <c r="F329" s="3"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F330" s="2"/>
+      <c r="F330" s="3"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F331" s="2"/>
+      <c r="F331" s="3"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F332" s="2"/>
+      <c r="F332" s="3"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F333" s="2"/>
+      <c r="F333" s="3"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F334" s="2"/>
+      <c r="F334" s="3"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F335" s="2"/>
+      <c r="F335" s="3"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F336" s="2"/>
+      <c r="F336" s="3"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F337" s="2"/>
+      <c r="F337" s="3"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F338" s="2"/>
+      <c r="F338" s="3"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F339" s="2"/>
+      <c r="F339" s="3"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="2"/>
+      <c r="F340" s="3"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F341" s="2"/>
+      <c r="F341" s="3"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F342" s="2"/>
+      <c r="F342" s="3"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F343" s="2"/>
+      <c r="F343" s="3"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F344" s="2"/>
+      <c r="F344" s="3"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F345" s="2"/>
+      <c r="F345" s="3"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F346" s="2"/>
+      <c r="F346" s="3"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F347" s="2"/>
+      <c r="F347" s="3"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F348" s="2"/>
+      <c r="F348" s="3"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F349" s="2"/>
+      <c r="F349" s="3"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F350" s="2"/>
+      <c r="F350" s="3"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F351" s="2"/>
+      <c r="F351" s="3"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F352" s="2"/>
+      <c r="F352" s="3"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F353" s="2"/>
+      <c r="F353" s="3"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F354" s="2"/>
+      <c r="F354" s="3"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F355" s="2"/>
+      <c r="F355" s="3"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F356" s="2"/>
+      <c r="F356" s="3"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F357" s="2"/>
+      <c r="F357" s="3"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F358" s="2"/>
+      <c r="F358" s="3"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F359" s="2"/>
+      <c r="F359" s="3"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F360" s="2"/>
+      <c r="F360" s="3"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F361" s="2"/>
+      <c r="F361" s="3"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F362" s="2"/>
+      <c r="F362" s="3"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F363" s="2"/>
+      <c r="F363" s="3"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F364" s="2"/>
+      <c r="F364" s="3"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F365" s="2"/>
+      <c r="F365" s="3"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F366" s="2"/>
+      <c r="F366" s="3"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F367" s="2"/>
+      <c r="F367" s="3"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F368" s="2"/>
+      <c r="F368" s="3"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F369" s="2"/>
+      <c r="F369" s="3"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F370" s="2"/>
+      <c r="F370" s="3"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F371" s="2"/>
+      <c r="F371" s="3"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F372" s="2"/>
+      <c r="F372" s="3"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F373" s="2"/>
+      <c r="F373" s="3"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F374" s="2"/>
+      <c r="F374" s="3"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F375" s="2"/>
+      <c r="F375" s="3"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F376" s="2"/>
+      <c r="F376" s="3"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F377" s="2"/>
+      <c r="F377" s="3"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F378" s="2"/>
+      <c r="F378" s="3"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F379" s="2"/>
+      <c r="F379" s="3"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F380" s="2"/>
+      <c r="F380" s="3"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F381" s="2"/>
+      <c r="F381" s="3"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F382" s="2"/>
+      <c r="F382" s="3"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F383" s="2"/>
+      <c r="F383" s="3"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F384" s="2"/>
+      <c r="F384" s="3"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F385" s="2"/>
+      <c r="F385" s="3"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F386" s="2"/>
+      <c r="F386" s="3"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F387" s="2"/>
+      <c r="F387" s="3"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F388" s="2"/>
+      <c r="F388" s="3"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F389" s="2"/>
+      <c r="F389" s="3"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F390" s="2"/>
+      <c r="F390" s="3"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F391" s="2"/>
+      <c r="F391" s="3"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F392" s="2"/>
+      <c r="F392" s="3"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F393" s="2"/>
+      <c r="F393" s="3"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F394" s="2"/>
+      <c r="F394" s="3"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F395" s="2"/>
+      <c r="F395" s="3"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F396" s="2"/>
+      <c r="F396" s="3"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F397" s="2"/>
+      <c r="F397" s="3"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F398" s="2"/>
+      <c r="F398" s="3"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F399" s="2"/>
+      <c r="F399" s="3"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F400" s="2"/>
+      <c r="F400" s="3"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F401" s="2"/>
+      <c r="F401" s="3"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F402" s="2"/>
+      <c r="F402" s="3"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F403" s="2"/>
+      <c r="F403" s="3"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F404" s="2"/>
+      <c r="F404" s="3"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F405" s="2"/>
+      <c r="F405" s="3"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F406" s="2"/>
+      <c r="F406" s="3"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F407" s="2"/>
+      <c r="F407" s="3"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F408" s="2"/>
+      <c r="F408" s="3"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F409" s="2"/>
+      <c r="F409" s="3"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F410" s="2"/>
+      <c r="F410" s="3"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F411" s="2"/>
+      <c r="F411" s="3"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F412" s="2"/>
+      <c r="F412" s="3"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F413" s="2"/>
+      <c r="F413" s="3"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F414" s="2"/>
+      <c r="F414" s="3"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F415" s="2"/>
+      <c r="F415" s="3"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F416" s="2"/>
+      <c r="F416" s="3"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F417" s="2"/>
+      <c r="F417" s="3"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F418" s="2"/>
+      <c r="F418" s="3"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F419" s="2"/>
+      <c r="F419" s="3"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F420" s="2"/>
+      <c r="F420" s="3"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F421" s="2"/>
+      <c r="F421" s="3"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F422" s="2"/>
+      <c r="F422" s="3"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F423" s="2"/>
+      <c r="F423" s="3"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F424" s="2"/>
+      <c r="F424" s="3"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F425" s="2"/>
+      <c r="F425" s="3"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F426" s="2"/>
+      <c r="F426" s="3"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F427" s="2"/>
+      <c r="F427" s="3"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F428" s="2"/>
+      <c r="F428" s="3"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F429" s="2"/>
+      <c r="F429" s="3"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F430" s="2"/>
+      <c r="F430" s="3"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F431" s="2"/>
+      <c r="F431" s="3"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F432" s="2"/>
+      <c r="F432" s="3"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F433" s="2"/>
+      <c r="F433" s="3"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F434" s="2"/>
+      <c r="F434" s="3"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F435" s="2"/>
+      <c r="F435" s="3"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F436" s="2"/>
+      <c r="F436" s="3"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F437" s="2"/>
+      <c r="F437" s="3"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F438" s="2"/>
+      <c r="F438" s="3"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F439" s="2"/>
+      <c r="F439" s="3"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F440" s="2"/>
+      <c r="F440" s="3"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F441" s="2"/>
+      <c r="F441" s="3"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F442" s="2"/>
+      <c r="F442" s="3"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F443" s="2"/>
+      <c r="F443" s="3"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F444" s="2"/>
+      <c r="F444" s="3"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F445" s="2"/>
+      <c r="F445" s="3"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F446" s="2"/>
+      <c r="F446" s="3"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F447" s="2"/>
+      <c r="F447" s="3"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F448" s="2"/>
+      <c r="F448" s="3"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F449" s="2"/>
+      <c r="F449" s="3"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F450" s="2"/>
+      <c r="F450" s="3"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F451" s="2"/>
+      <c r="F451" s="3"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F452" s="2"/>
+      <c r="F452" s="3"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F453" s="2"/>
+      <c r="F453" s="3"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F454" s="2"/>
+      <c r="F454" s="3"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F455" s="2"/>
+      <c r="F455" s="3"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F456" s="2"/>
+      <c r="F456" s="3"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F457" s="2"/>
+      <c r="F457" s="3"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F458" s="2"/>
+      <c r="F458" s="3"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F459" s="2"/>
+      <c r="F459" s="3"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F460" s="2"/>
+      <c r="F460" s="3"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F461" s="2"/>
+      <c r="F461" s="3"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F462" s="2"/>
+      <c r="F462" s="3"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F463" s="2"/>
+      <c r="F463" s="3"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F464" s="2"/>
+      <c r="F464" s="3"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F465" s="2"/>
+      <c r="F465" s="3"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F466" s="2"/>
+      <c r="F466" s="3"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F467" s="2"/>
+      <c r="F467" s="3"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F468" s="2"/>
+      <c r="F468" s="3"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F469" s="2"/>
+      <c r="F469" s="3"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F470" s="2"/>
+      <c r="F470" s="3"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F471" s="2"/>
+      <c r="F471" s="3"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F472" s="2"/>
+      <c r="F472" s="3"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F473" s="2"/>
+      <c r="F473" s="3"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F474" s="2"/>
+      <c r="F474" s="3"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F475" s="2"/>
+      <c r="F475" s="3"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F476" s="2"/>
+      <c r="F476" s="3"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F477" s="2"/>
+      <c r="F477" s="3"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F478" s="2"/>
+      <c r="F478" s="3"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F479" s="2"/>
+      <c r="F479" s="3"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F480" s="2"/>
+      <c r="F480" s="3"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F481" s="2"/>
+      <c r="F481" s="3"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F482" s="2"/>
+      <c r="F482" s="3"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F483" s="2"/>
+      <c r="F483" s="3"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F484" s="2"/>
+      <c r="F484" s="3"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F485" s="2"/>
+      <c r="F485" s="3"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F486" s="2"/>
+      <c r="F486" s="3"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F487" s="2"/>
+      <c r="F487" s="3"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F488" s="2"/>
+      <c r="F488" s="3"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F489" s="2"/>
+      <c r="F489" s="3"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F490" s="2"/>
+      <c r="F490" s="3"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F491" s="2"/>
+      <c r="F491" s="3"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F492" s="2"/>
+      <c r="F492" s="3"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F493" s="2"/>
+      <c r="F493" s="3"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F494" s="2"/>
+      <c r="F494" s="3"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F495" s="2"/>
+      <c r="F495" s="3"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F496" s="2"/>
+      <c r="F496" s="3"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F497" s="2"/>
+      <c r="F497" s="3"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F498" s="2"/>
+      <c r="F498" s="3"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F499" s="2"/>
+      <c r="F499" s="3"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F500" s="2"/>
+      <c r="F500" s="3"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F501" s="2"/>
+      <c r="F501" s="3"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F502" s="2"/>
+      <c r="F502" s="3"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F503" s="2"/>
+      <c r="F503" s="3"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F504" s="2"/>
+      <c r="F504" s="3"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F505" s="2"/>
+      <c r="F505" s="3"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F506" s="2"/>
+      <c r="F506" s="3"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F507" s="2"/>
+      <c r="F507" s="3"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F508" s="2"/>
+      <c r="F508" s="3"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F509" s="2"/>
+      <c r="F509" s="3"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F510" s="2"/>
+      <c r="F510" s="3"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F511" s="2"/>
+      <c r="F511" s="3"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F512" s="2"/>
+      <c r="F512" s="3"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F513" s="2"/>
+      <c r="F513" s="3"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F514" s="2"/>
+      <c r="F514" s="3"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F515" s="2"/>
+      <c r="F515" s="3"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F516" s="2"/>
+      <c r="F516" s="3"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F517" s="2"/>
+      <c r="F517" s="3"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F518" s="2"/>
+      <c r="F518" s="3"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F519" s="2"/>
+      <c r="F519" s="3"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F520" s="2"/>
+      <c r="F520" s="3"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F521" s="2"/>
+      <c r="F521" s="3"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F522" s="2"/>
+      <c r="F522" s="3"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F523" s="2"/>
+      <c r="F523" s="3"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F524" s="2"/>
+      <c r="F524" s="3"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F525" s="2"/>
+      <c r="F525" s="3"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F526" s="2"/>
+      <c r="F526" s="3"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F527" s="2"/>
+      <c r="F527" s="3"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F528" s="2"/>
+      <c r="F528" s="3"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F529" s="2"/>
+      <c r="F529" s="3"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F530" s="2"/>
+      <c r="F530" s="3"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F531" s="2"/>
+      <c r="F531" s="3"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F532" s="2"/>
+      <c r="F532" s="3"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F533" s="2"/>
+      <c r="F533" s="3"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F534" s="2"/>
+      <c r="F534" s="3"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F535" s="2"/>
+      <c r="F535" s="3"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F536" s="2"/>
+      <c r="F536" s="3"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F537" s="2"/>
+      <c r="F537" s="3"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F538" s="2"/>
+      <c r="F538" s="3"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F539" s="2"/>
+      <c r="F539" s="3"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F540" s="2"/>
+      <c r="F540" s="3"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F541" s="2"/>
+      <c r="F541" s="3"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F542" s="2"/>
+      <c r="F542" s="3"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F543" s="2"/>
+      <c r="F543" s="3"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F544" s="2"/>
+      <c r="F544" s="3"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F545" s="2"/>
+      <c r="F545" s="3"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F546" s="2"/>
+      <c r="F546" s="3"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F547" s="2"/>
+      <c r="F547" s="3"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F548" s="2"/>
+      <c r="F548" s="3"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F549" s="2"/>
+      <c r="F549" s="3"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F550" s="2"/>
+      <c r="F550" s="3"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F551" s="2"/>
+      <c r="F551" s="3"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F552" s="2"/>
+      <c r="F552" s="3"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F553" s="2"/>
+      <c r="F553" s="3"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F554" s="2"/>
+      <c r="F554" s="3"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F555" s="2"/>
+      <c r="F555" s="3"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F556" s="2"/>
+      <c r="F556" s="3"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F557" s="2"/>
+      <c r="F557" s="3"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F558" s="2"/>
+      <c r="F558" s="3"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F559" s="2"/>
+      <c r="F559" s="3"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F560" s="2"/>
+      <c r="F560" s="3"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F561" s="2"/>
+      <c r="F561" s="3"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F562" s="2"/>
+      <c r="F562" s="3"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F563" s="2"/>
+      <c r="F563" s="3"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F564" s="2"/>
+      <c r="F564" s="3"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F565" s="2"/>
+      <c r="F565" s="3"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F566" s="2"/>
+      <c r="F566" s="3"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F567" s="2"/>
+      <c r="F567" s="3"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F568" s="2"/>
+      <c r="F568" s="3"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F569" s="2"/>
+      <c r="F569" s="3"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F570" s="2"/>
+      <c r="F570" s="3"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F571" s="2"/>
+      <c r="F571" s="3"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F572" s="2"/>
+      <c r="F572" s="3"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F573" s="2"/>
+      <c r="F573" s="3"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F574" s="2"/>
+      <c r="F574" s="3"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F575" s="2"/>
+      <c r="F575" s="3"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F576" s="2"/>
+      <c r="F576" s="3"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F577" s="2"/>
+      <c r="F577" s="3"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F578" s="2"/>
+      <c r="F578" s="3"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F579" s="2"/>
+      <c r="F579" s="3"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F580" s="2"/>
+      <c r="F580" s="3"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F581" s="2"/>
+      <c r="F581" s="3"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F582" s="2"/>
+      <c r="F582" s="3"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F583" s="2"/>
+      <c r="F583" s="3"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F584" s="2"/>
+      <c r="F584" s="3"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F585" s="2"/>
+      <c r="F585" s="3"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F586" s="2"/>
+      <c r="F586" s="3"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F587" s="2"/>
+      <c r="F587" s="3"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F588" s="2"/>
+      <c r="F588" s="3"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F589" s="2"/>
+      <c r="F589" s="3"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F590" s="2"/>
+      <c r="F590" s="3"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F591" s="2"/>
+      <c r="F591" s="3"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F592" s="2"/>
+      <c r="F592" s="3"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F593" s="2"/>
+      <c r="F593" s="3"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F594" s="2"/>
+      <c r="F594" s="3"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F595" s="2"/>
+      <c r="F595" s="3"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F596" s="2"/>
+      <c r="F596" s="3"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F597" s="2"/>
+      <c r="F597" s="3"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F598" s="2"/>
+      <c r="F598" s="3"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F599" s="2"/>
+      <c r="F599" s="3"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F600" s="2"/>
+      <c r="F600" s="3"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F601" s="2"/>
+      <c r="F601" s="3"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F602" s="2"/>
+      <c r="F602" s="3"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F603" s="2"/>
+      <c r="F603" s="3"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F604" s="2"/>
+      <c r="F604" s="3"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F605" s="2"/>
+      <c r="F605" s="3"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F606" s="2"/>
+      <c r="F606" s="3"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F607" s="2"/>
+      <c r="F607" s="3"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F608" s="2"/>
+      <c r="F608" s="3"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F609" s="2"/>
+      <c r="F609" s="3"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F610" s="2"/>
+      <c r="F610" s="3"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F611" s="2"/>
+      <c r="F611" s="3"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F612" s="2"/>
+      <c r="F612" s="3"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F613" s="2"/>
+      <c r="F613" s="3"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F614" s="2"/>
+      <c r="F614" s="3"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F615" s="2"/>
+      <c r="F615" s="3"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F616" s="2"/>
+      <c r="F616" s="3"/>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F617" s="2"/>
+      <c r="F617" s="3"/>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F618" s="2"/>
+      <c r="F618" s="3"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F619" s="2"/>
+      <c r="F619" s="3"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F620" s="2"/>
+      <c r="F620" s="3"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F621" s="2"/>
+      <c r="F621" s="3"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F622" s="2"/>
+      <c r="F622" s="3"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F623" s="2"/>
+      <c r="F623" s="3"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F624" s="2"/>
+      <c r="F624" s="3"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F625" s="2"/>
+      <c r="F625" s="3"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F626" s="2"/>
+      <c r="F626" s="3"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F627" s="2"/>
+      <c r="F627" s="3"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F628" s="2"/>
+      <c r="F628" s="3"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F629" s="2"/>
+      <c r="F629" s="3"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F630" s="2"/>
+      <c r="F630" s="3"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F631" s="2"/>
+      <c r="F631" s="3"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F632" s="2"/>
+      <c r="F632" s="3"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F633" s="2"/>
+      <c r="F633" s="3"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F634" s="2"/>
+      <c r="F634" s="3"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F635" s="2"/>
+      <c r="F635" s="3"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F636" s="2"/>
+      <c r="F636" s="3"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F637" s="2"/>
+      <c r="F637" s="3"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F638" s="2"/>
+      <c r="F638" s="3"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F639" s="2"/>
+      <c r="F639" s="3"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F640" s="2"/>
+      <c r="F640" s="3"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F641" s="2"/>
+      <c r="F641" s="3"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F642" s="2"/>
+      <c r="F642" s="3"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F643" s="2"/>
+      <c r="F643" s="3"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F644" s="2"/>
+      <c r="F644" s="3"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F645" s="2"/>
+      <c r="F645" s="3"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F646" s="2"/>
+      <c r="F646" s="3"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F647" s="2"/>
+      <c r="F647" s="3"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F648" s="2"/>
+      <c r="F648" s="3"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F649" s="2"/>
+      <c r="F649" s="3"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F650" s="2"/>
+      <c r="F650" s="3"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F651" s="2"/>
+      <c r="F651" s="3"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F652" s="2"/>
+      <c r="F652" s="3"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F653" s="2"/>
+      <c r="F653" s="3"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F654" s="2"/>
+      <c r="F654" s="3"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F655" s="2"/>
+      <c r="F655" s="3"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F656" s="2"/>
+      <c r="F656" s="3"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F657" s="2"/>
+      <c r="F657" s="3"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F658" s="2"/>
+      <c r="F658" s="3"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F659" s="2"/>
+      <c r="F659" s="3"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F660" s="2"/>
+      <c r="F660" s="3"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F661" s="2"/>
+      <c r="F661" s="3"/>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F662" s="2"/>
+      <c r="F662" s="3"/>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F663" s="2"/>
+      <c r="F663" s="3"/>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F664" s="2"/>
+      <c r="F664" s="3"/>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F665" s="2"/>
+      <c r="F665" s="3"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F666" s="2"/>
+      <c r="F666" s="3"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F667" s="2"/>
+      <c r="F667" s="3"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F668" s="2"/>
+      <c r="F668" s="3"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F669" s="2"/>
+      <c r="F669" s="3"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F670" s="2"/>
+      <c r="F670" s="3"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F671" s="2"/>
+      <c r="F671" s="3"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F672" s="2"/>
+      <c r="F672" s="3"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F673" s="2"/>
+      <c r="F673" s="3"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F674" s="2"/>
+      <c r="F674" s="3"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F675" s="2"/>
+      <c r="F675" s="3"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F676" s="2"/>
+      <c r="F676" s="3"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F677" s="2"/>
+      <c r="F677" s="3"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F678" s="2"/>
+      <c r="F678" s="3"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F679" s="2"/>
+      <c r="F679" s="3"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F680" s="2"/>
+      <c r="F680" s="3"/>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F681" s="2"/>
+      <c r="F681" s="3"/>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F682" s="2"/>
+      <c r="F682" s="3"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F683" s="2"/>
+      <c r="F683" s="3"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F684" s="2"/>
+      <c r="F684" s="3"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F685" s="2"/>
+      <c r="F685" s="3"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F686" s="2"/>
+      <c r="F686" s="3"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F687" s="2"/>
+      <c r="F687" s="3"/>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F688" s="2"/>
+      <c r="F688" s="3"/>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F689" s="2"/>
+      <c r="F689" s="3"/>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F690" s="2"/>
+      <c r="F690" s="3"/>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F691" s="2"/>
+      <c r="F691" s="3"/>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F692" s="2"/>
+      <c r="F692" s="3"/>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F693" s="2"/>
+      <c r="F693" s="3"/>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F694" s="2"/>
+      <c r="F694" s="3"/>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F695" s="2"/>
+      <c r="F695" s="3"/>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F696" s="2"/>
+      <c r="F696" s="3"/>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F697" s="2"/>
+      <c r="F697" s="3"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F698" s="2"/>
+      <c r="F698" s="3"/>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F699" s="2"/>
+      <c r="F699" s="3"/>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F700" s="2"/>
+      <c r="F700" s="3"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F701" s="2"/>
+      <c r="F701" s="3"/>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F702" s="2"/>
+      <c r="F702" s="3"/>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F703" s="2"/>
+      <c r="F703" s="3"/>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F704" s="2"/>
+      <c r="F704" s="3"/>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F705" s="2"/>
+      <c r="F705" s="3"/>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F706" s="2"/>
+      <c r="F706" s="3"/>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F707" s="2"/>
+      <c r="F707" s="3"/>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F708" s="2"/>
+      <c r="F708" s="3"/>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F709" s="2"/>
+      <c r="F709" s="3"/>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F710" s="2"/>
+      <c r="F710" s="3"/>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F711" s="2"/>
+      <c r="F711" s="3"/>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F712" s="2"/>
+      <c r="F712" s="3"/>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F713" s="2"/>
+      <c r="F713" s="3"/>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F714" s="2"/>
+      <c r="F714" s="3"/>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F715" s="2"/>
+      <c r="F715" s="3"/>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F716" s="2"/>
+      <c r="F716" s="3"/>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F717" s="2"/>
+      <c r="F717" s="3"/>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F718" s="2"/>
+      <c r="F718" s="3"/>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F719" s="2"/>
+      <c r="F719" s="3"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F720" s="2"/>
+      <c r="F720" s="3"/>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F721" s="2"/>
+      <c r="F721" s="3"/>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F722" s="2"/>
+      <c r="F722" s="3"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F723" s="2"/>
+      <c r="F723" s="3"/>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F724" s="2"/>
+      <c r="F724" s="3"/>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F725" s="2"/>
+      <c r="F725" s="3"/>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F726" s="2"/>
+      <c r="F726" s="3"/>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F727" s="2"/>
+      <c r="F727" s="3"/>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F728" s="2"/>
+      <c r="F728" s="3"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F729" s="2"/>
+      <c r="F729" s="3"/>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F730" s="2"/>
+      <c r="F730" s="3"/>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F731" s="2"/>
+      <c r="F731" s="3"/>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F732" s="2"/>
+      <c r="F732" s="3"/>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F733" s="2"/>
+      <c r="F733" s="3"/>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F734" s="2"/>
+      <c r="F734" s="3"/>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F735" s="2"/>
+      <c r="F735" s="3"/>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F736" s="2"/>
+      <c r="F736" s="3"/>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F737" s="2"/>
+      <c r="F737" s="3"/>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F738" s="2"/>
+      <c r="F738" s="3"/>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F739" s="2"/>
+      <c r="F739" s="3"/>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F740" s="2"/>
+      <c r="F740" s="3"/>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F741" s="2"/>
+      <c r="F741" s="3"/>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F742" s="2"/>
+      <c r="F742" s="3"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F743" s="2"/>
+      <c r="F743" s="3"/>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F744" s="2"/>
+      <c r="F744" s="3"/>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F745" s="2"/>
+      <c r="F745" s="3"/>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F746" s="2"/>
+      <c r="F746" s="3"/>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F747" s="2"/>
+      <c r="F747" s="3"/>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F748" s="2"/>
+      <c r="F748" s="3"/>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F749" s="2"/>
+      <c r="F749" s="3"/>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F750" s="2"/>
+      <c r="F750" s="3"/>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F751" s="2"/>
+      <c r="F751" s="3"/>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F752" s="2"/>
+      <c r="F752" s="3"/>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F753" s="2"/>
+      <c r="F753" s="3"/>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F754" s="2"/>
+      <c r="F754" s="3"/>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F755" s="2"/>
+      <c r="F755" s="3"/>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F756" s="2"/>
+      <c r="F756" s="3"/>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F757" s="2"/>
+      <c r="F757" s="3"/>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F758" s="2"/>
+      <c r="F758" s="3"/>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F759" s="2"/>
+      <c r="F759" s="3"/>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F760" s="2"/>
+      <c r="F760" s="3"/>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F761" s="2"/>
+      <c r="F761" s="3"/>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F762" s="2"/>
+      <c r="F762" s="3"/>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F763" s="2"/>
+      <c r="F763" s="3"/>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F764" s="2"/>
+      <c r="F764" s="3"/>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F765" s="2"/>
+      <c r="F765" s="3"/>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F766" s="2"/>
+      <c r="F766" s="3"/>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F767" s="2"/>
+      <c r="F767" s="3"/>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F768" s="2"/>
+      <c r="F768" s="3"/>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F769" s="2"/>
+      <c r="F769" s="3"/>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F770" s="2"/>
+      <c r="F770" s="3"/>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F771" s="2"/>
+      <c r="F771" s="3"/>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F772" s="2"/>
+      <c r="F772" s="3"/>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F773" s="2"/>
+      <c r="F773" s="3"/>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F774" s="2"/>
+      <c r="F774" s="3"/>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F775" s="2"/>
+      <c r="F775" s="3"/>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F776" s="2"/>
+      <c r="F776" s="3"/>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F777" s="2"/>
+      <c r="F777" s="3"/>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F778" s="2"/>
+      <c r="F778" s="3"/>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F779" s="2"/>
+      <c r="F779" s="3"/>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F780" s="2"/>
+      <c r="F780" s="3"/>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F781" s="2"/>
+      <c r="F781" s="3"/>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F782" s="2"/>
+      <c r="F782" s="3"/>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F783" s="2"/>
+      <c r="F783" s="3"/>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F784" s="2"/>
+      <c r="F784" s="3"/>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F785" s="2"/>
+      <c r="F785" s="3"/>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F786" s="2"/>
+      <c r="F786" s="3"/>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F787" s="2"/>
+      <c r="F787" s="3"/>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F788" s="2"/>
+      <c r="F788" s="3"/>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F789" s="2"/>
+      <c r="F789" s="3"/>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F790" s="2"/>
+      <c r="F790" s="3"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F791" s="2"/>
+      <c r="F791" s="3"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F792" s="2"/>
+      <c r="F792" s="3"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F793" s="2"/>
+      <c r="F793" s="3"/>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F794" s="2"/>
+      <c r="F794" s="3"/>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F795" s="2"/>
+      <c r="F795" s="3"/>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F796" s="2"/>
+      <c r="F796" s="3"/>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F797" s="2"/>
+      <c r="F797" s="3"/>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F798" s="2"/>
+      <c r="F798" s="3"/>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F799" s="2"/>
+      <c r="F799" s="3"/>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F800" s="2"/>
+      <c r="F800" s="3"/>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F801" s="2"/>
+      <c r="F801" s="3"/>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F802" s="2"/>
+      <c r="F802" s="3"/>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F803" s="2"/>
+      <c r="F803" s="3"/>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F804" s="2"/>
+      <c r="F804" s="3"/>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F805" s="2"/>
+      <c r="F805" s="3"/>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F806" s="2"/>
+      <c r="F806" s="3"/>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F807" s="2"/>
+      <c r="F807" s="3"/>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F808" s="2"/>
+      <c r="F808" s="3"/>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F809" s="2"/>
+      <c r="F809" s="3"/>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F810" s="2"/>
+      <c r="F810" s="3"/>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F811" s="2"/>
+      <c r="F811" s="3"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F812" s="2"/>
+      <c r="F812" s="3"/>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F813" s="2"/>
+      <c r="F813" s="3"/>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F814" s="2"/>
+      <c r="F814" s="3"/>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F815" s="2"/>
+      <c r="F815" s="3"/>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F816" s="2"/>
+      <c r="F816" s="3"/>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F817" s="2"/>
+      <c r="F817" s="3"/>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F818" s="2"/>
+      <c r="F818" s="3"/>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F819" s="2"/>
+      <c r="F819" s="3"/>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F820" s="2"/>
+      <c r="F820" s="3"/>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F821" s="2"/>
+      <c r="F821" s="3"/>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F822" s="2"/>
+      <c r="F822" s="3"/>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F823" s="2"/>
+      <c r="F823" s="3"/>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F824" s="2"/>
+      <c r="F824" s="3"/>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F825" s="2"/>
+      <c r="F825" s="3"/>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F826" s="2"/>
+      <c r="F826" s="3"/>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F827" s="2"/>
+      <c r="F827" s="3"/>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F828" s="2"/>
+      <c r="F828" s="3"/>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F829" s="2"/>
+      <c r="F829" s="3"/>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F830" s="2"/>
+      <c r="F830" s="3"/>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F831" s="2"/>
+      <c r="F831" s="3"/>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F832" s="2"/>
+      <c r="F832" s="3"/>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F833" s="2"/>
+      <c r="F833" s="3"/>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F834" s="2"/>
+      <c r="F834" s="3"/>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F835" s="2"/>
+      <c r="F835" s="3"/>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F836" s="2"/>
+      <c r="F836" s="3"/>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F837" s="2"/>
+      <c r="F837" s="3"/>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F838" s="2"/>
+      <c r="F838" s="3"/>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F839" s="2"/>
+      <c r="F839" s="3"/>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F840" s="2"/>
+      <c r="F840" s="3"/>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F841" s="2"/>
+      <c r="F841" s="3"/>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F842" s="2"/>
+      <c r="F842" s="3"/>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F843" s="2"/>
+      <c r="F843" s="3"/>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F844" s="2"/>
+      <c r="F844" s="3"/>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F845" s="2"/>
+      <c r="F845" s="3"/>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F846" s="2"/>
+      <c r="F846" s="3"/>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F847" s="2"/>
+      <c r="F847" s="3"/>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F848" s="2"/>
+      <c r="F848" s="3"/>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F849" s="2"/>
+      <c r="F849" s="3"/>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F850" s="2"/>
+      <c r="F850" s="3"/>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F851" s="2"/>
+      <c r="F851" s="3"/>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F852" s="2"/>
+      <c r="F852" s="3"/>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F853" s="2"/>
+      <c r="F853" s="3"/>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F854" s="2"/>
+      <c r="F854" s="3"/>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F855" s="2"/>
+      <c r="F855" s="3"/>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F856" s="2"/>
+      <c r="F856" s="3"/>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F857" s="2"/>
+      <c r="F857" s="3"/>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F858" s="2"/>
+      <c r="F858" s="3"/>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F859" s="2"/>
+      <c r="F859" s="3"/>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F860" s="2"/>
+      <c r="F860" s="3"/>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F861" s="2"/>
+      <c r="F861" s="3"/>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F862" s="2"/>
+      <c r="F862" s="3"/>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F863" s="2"/>
+      <c r="F863" s="3"/>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F864" s="2"/>
+      <c r="F864" s="3"/>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F865" s="2"/>
+      <c r="F865" s="3"/>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F866" s="2"/>
+      <c r="F866" s="3"/>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F867" s="2"/>
+      <c r="F867" s="3"/>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F868" s="2"/>
+      <c r="F868" s="3"/>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F869" s="2"/>
+      <c r="F869" s="3"/>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F870" s="2"/>
+      <c r="F870" s="3"/>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F871" s="2"/>
+      <c r="F871" s="3"/>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F872" s="2"/>
+      <c r="F872" s="3"/>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F873" s="2"/>
+      <c r="F873" s="3"/>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F874" s="2"/>
+      <c r="F874" s="3"/>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F875" s="2"/>
+      <c r="F875" s="3"/>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F876" s="2"/>
+      <c r="F876" s="3"/>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F877" s="2"/>
+      <c r="F877" s="3"/>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F878" s="2"/>
+      <c r="F878" s="3"/>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F879" s="2"/>
+      <c r="F879" s="3"/>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F880" s="2"/>
+      <c r="F880" s="3"/>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F881" s="2"/>
+      <c r="F881" s="3"/>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F882" s="2"/>
+      <c r="F882" s="3"/>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F883" s="2"/>
+      <c r="F883" s="3"/>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F884" s="2"/>
+      <c r="F884" s="3"/>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F885" s="2"/>
+      <c r="F885" s="3"/>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F886" s="2"/>
+      <c r="F886" s="3"/>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F887" s="2"/>
+      <c r="F887" s="3"/>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F888" s="2"/>
+      <c r="F888" s="3"/>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F889" s="2"/>
+      <c r="F889" s="3"/>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F890" s="2"/>
+      <c r="F890" s="3"/>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F891" s="2"/>
+      <c r="F891" s="3"/>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F892" s="2"/>
+      <c r="F892" s="3"/>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F893" s="2"/>
+      <c r="F893" s="3"/>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F894" s="2"/>
+      <c r="F894" s="3"/>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F895" s="2"/>
+      <c r="F895" s="3"/>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F896" s="2"/>
+      <c r="F896" s="3"/>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F897" s="2"/>
+      <c r="F897" s="3"/>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F898" s="2"/>
+      <c r="F898" s="3"/>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F899" s="2"/>
+      <c r="F899" s="3"/>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F900" s="2"/>
+      <c r="F900" s="3"/>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F901" s="2"/>
+      <c r="F901" s="3"/>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F902" s="2"/>
+      <c r="F902" s="3"/>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F903" s="2"/>
+      <c r="F903" s="3"/>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F904" s="2"/>
+      <c r="F904" s="3"/>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F905" s="2"/>
+      <c r="F905" s="3"/>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F906" s="2"/>
+      <c r="F906" s="3"/>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F907" s="2"/>
+      <c r="F907" s="3"/>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F908" s="2"/>
+      <c r="F908" s="3"/>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F909" s="2"/>
+      <c r="F909" s="3"/>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F910" s="2"/>
+      <c r="F910" s="3"/>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F911" s="2"/>
+      <c r="F911" s="3"/>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F912" s="2"/>
+      <c r="F912" s="3"/>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F913" s="2"/>
+      <c r="F913" s="3"/>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F914" s="2"/>
+      <c r="F914" s="3"/>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F915" s="2"/>
+      <c r="F915" s="3"/>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F916" s="2"/>
+      <c r="F916" s="3"/>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F917" s="2"/>
+      <c r="F917" s="3"/>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F918" s="2"/>
+      <c r="F918" s="3"/>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F919" s="2"/>
+      <c r="F919" s="3"/>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F920" s="2"/>
+      <c r="F920" s="3"/>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F921" s="2"/>
+      <c r="F921" s="3"/>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F922" s="2"/>
+      <c r="F922" s="3"/>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F923" s="2"/>
+      <c r="F923" s="3"/>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F924" s="2"/>
+      <c r="F924" s="3"/>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F925" s="2"/>
+      <c r="F925" s="3"/>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F926" s="2"/>
+      <c r="F926" s="3"/>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F927" s="2"/>
+      <c r="F927" s="3"/>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F928" s="2"/>
+      <c r="F928" s="3"/>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F929" s="2"/>
+      <c r="F929" s="3"/>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F930" s="2"/>
+      <c r="F930" s="3"/>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F931" s="2"/>
+      <c r="F931" s="3"/>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F932" s="2"/>
+      <c r="F932" s="3"/>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F933" s="2"/>
+      <c r="F933" s="3"/>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F934" s="2"/>
+      <c r="F934" s="3"/>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F935" s="2"/>
+      <c r="F935" s="3"/>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F936" s="2"/>
+      <c r="F936" s="3"/>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F937" s="2"/>
+      <c r="F937" s="3"/>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F938" s="2"/>
+      <c r="F938" s="3"/>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F939" s="2"/>
+      <c r="F939" s="3"/>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F940" s="2"/>
+      <c r="F940" s="3"/>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F941" s="2"/>
+      <c r="F941" s="3"/>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F942" s="2"/>
+      <c r="F942" s="3"/>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F943" s="2"/>
+      <c r="F943" s="3"/>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F944" s="2"/>
+      <c r="F944" s="3"/>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F945" s="2"/>
+      <c r="F945" s="3"/>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F946" s="2"/>
+      <c r="F946" s="3"/>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F947" s="2"/>
+      <c r="F947" s="3"/>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F948" s="2"/>
+      <c r="F948" s="3"/>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F949" s="2"/>
+      <c r="F949" s="3"/>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F950" s="2"/>
+      <c r="F950" s="3"/>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F951" s="2"/>
+      <c r="F951" s="3"/>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F952" s="2"/>
+      <c r="F952" s="3"/>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F953" s="2"/>
+      <c r="F953" s="3"/>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F954" s="2"/>
+      <c r="F954" s="3"/>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F955" s="2"/>
+      <c r="F955" s="3"/>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F956" s="2"/>
+      <c r="F956" s="3"/>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F957" s="2"/>
+      <c r="F957" s="3"/>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F958" s="2"/>
+      <c r="F958" s="3"/>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F959" s="2"/>
+      <c r="F959" s="3"/>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F960" s="2"/>
+      <c r="F960" s="3"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F961" s="2"/>
+      <c r="F961" s="3"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F962" s="2"/>
+      <c r="F962" s="3"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F963" s="2"/>
+      <c r="F963" s="3"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F964" s="2"/>
+      <c r="F964" s="3"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F965" s="2"/>
+      <c r="F965" s="3"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F966" s="2"/>
+      <c r="F966" s="3"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F967" s="2"/>
+      <c r="F967" s="3"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F968" s="2"/>
+      <c r="F968" s="3"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F969" s="2"/>
+      <c r="F969" s="3"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F970" s="2"/>
+      <c r="F970" s="3"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F971" s="2"/>
+      <c r="F971" s="3"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F972" s="2"/>
+      <c r="F972" s="3"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F973" s="2"/>
+      <c r="F973" s="3"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F974" s="2"/>
+      <c r="F974" s="3"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F975" s="2"/>
+      <c r="F975" s="3"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F976" s="2"/>
+      <c r="F976" s="3"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F977" s="2"/>
+      <c r="F977" s="3"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F978" s="2"/>
+      <c r="F978" s="3"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F979" s="2"/>
+      <c r="F979" s="3"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F980" s="2"/>
+      <c r="F980" s="3"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F981" s="2"/>
+      <c r="F981" s="3"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F982" s="2"/>
+      <c r="F982" s="3"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F983" s="2"/>
+      <c r="F983" s="3"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F984" s="2"/>
+      <c r="F984" s="3"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F985" s="2"/>
+      <c r="F985" s="3"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F986" s="2"/>
+      <c r="F986" s="3"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F987" s="2"/>
+      <c r="F987" s="3"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F988" s="2"/>
+      <c r="F988" s="3"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F989" s="2"/>
+      <c r="F989" s="3"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F990" s="2"/>
+      <c r="F990" s="3"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F991" s="2"/>
+      <c r="F991" s="3"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F992" s="2"/>
+      <c r="F992" s="3"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F993" s="2"/>
+      <c r="F993" s="3"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F994" s="2"/>
+      <c r="F994" s="3"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F995" s="2"/>
+      <c r="F995" s="3"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F996" s="2"/>
+      <c r="F996" s="3"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F997" s="2"/>
+      <c r="F997" s="3"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F998" s="2"/>
+      <c r="F998" s="3"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F999" s="2"/>
+      <c r="F999" s="3"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1000" s="2"/>
+      <c r="F1000" s="3"/>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1001" s="2"/>
+      <c r="F1001" s="3"/>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1002" s="2"/>
+      <c r="F1002" s="3"/>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1003" s="2"/>
+      <c r="F1003" s="3"/>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1004" s="2"/>
+      <c r="F1004" s="3"/>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1005" s="2"/>
+      <c r="F1005" s="3"/>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1006" s="2"/>
+      <c r="F1006" s="3"/>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1007" s="2"/>
+      <c r="F1007" s="3"/>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1008" s="2"/>
+      <c r="F1008" s="3"/>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1009" s="2"/>
+      <c r="F1009" s="3"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
